--- a/Test_Plan.xlsx
+++ b/Test_Plan.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
     <sheet name="Person" sheetId="2" r:id="rId2"/>
-    <sheet name="Room" sheetId="3" r:id="rId3"/>
-    <sheet name="Schedule" sheetId="4" r:id="rId4"/>
-    <sheet name="Apartment" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="Room" sheetId="3" r:id="rId4"/>
+    <sheet name="Schedule" sheetId="4" r:id="rId5"/>
+    <sheet name="Apartment" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="254">
   <si>
     <t>Test Number</t>
   </si>
@@ -726,7 +727,70 @@
     <t xml:space="preserve">invalid deposit over max chars </t>
   </si>
   <si>
-    <t>"buildingName": "The Heart", "apartmentNo" : "1401", "agency" : "agency name", "landlord" : "landlord name", "tenant" : "tenant name", "leaseStart" : "2017-01-05", "leaseEnd" : "2017-06-26", "breakClause" : "2017-03-01", "agencyPhoneNo" : "01234567891", "noRooms" : 3, "rent" : 1499.99, "notes" : "many notes can go here, there isn't much that can't", "address" : "full address in one line right now", "deposit" : 0123456789</t>
+    <t>"buildingName": "The Heart", "apartmentNo" : "1401", "agency" : "agency name", "landlord" : "landlord name", "tenant" : "tenant name", "leaseStart" : "2017-01-05", "leaseEnd" : "2017-06-26", "breakClause" : "2017-03-01", "agencyPhoneNo" : "01234567891", "noRooms" : 3, "rent" : 1499.99, "notes" : "many notes can go here, there isn't much that can't", "address" : "full address in one line right now", "deposit" : 1234567890</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/qa-apartments3/rest/person/json/1</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/qa-apartments3/rest/person/json/</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/qa-apartments3/rest/person/json/a</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/qa-apartments3/rest/person/json/£</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/qa-apartments3/rest/person/json/$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input </t>
+  </si>
+  <si>
+    <t>apartment : "1"</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/qa-apartments3/rest/room/getRoom/1</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/qa-apartments3/rest/room/getRoom/a</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/qa-apartments3/rest/room/getRoom/$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid Post then delete with id </t>
+  </si>
+  <si>
+    <t>http://localhost:8080/qa-apartments3/rest/room/deleteRoom/1</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/qa-apartments3/rest/room/deleteRoom/</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/qa-apartments3/rest/room/deleteRoom/a</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/qa-apartments3/rest/room/deleteRoom/%</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/qa-apartments3/rest/room/addRoom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End Point </t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Gets all the people saved in the database</t>
   </si>
 </sst>
 </file>
@@ -1142,7 +1206,7 @@
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1151,7 +1215,7 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="62.140625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="55" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
   </cols>
@@ -1191,7 +1255,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1201,8 +1265,11 @@
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="E4" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1211,6 +1278,9 @@
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
@@ -1223,6 +1293,9 @@
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E10" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -1234,6 +1307,9 @@
       <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="E12" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -1245,6 +1321,9 @@
       <c r="C14" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="E14" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -1256,8 +1335,11 @@
       <c r="C16" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E16" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>9</v>
       </c>
@@ -1267,8 +1349,11 @@
       <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E18" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10</v>
       </c>
@@ -1278,8 +1363,11 @@
       <c r="C20" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E20" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>11</v>
       </c>
@@ -1289,8 +1377,11 @@
       <c r="C22" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E22" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>12</v>
       </c>
@@ -1300,8 +1391,11 @@
       <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E24" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>13</v>
       </c>
@@ -1311,8 +1405,11 @@
       <c r="C26" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E26" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>14</v>
       </c>
@@ -1322,8 +1419,11 @@
       <c r="C28" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E28" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>15</v>
       </c>
@@ -1333,8 +1433,11 @@
       <c r="C30" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E30" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>16</v>
       </c>
@@ -1344,8 +1447,11 @@
       <c r="C32" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E32" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>17</v>
       </c>
@@ -1355,8 +1461,11 @@
       <c r="C34" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E34" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>18</v>
       </c>
@@ -1366,8 +1475,11 @@
       <c r="C36" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="E36" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>19</v>
       </c>
@@ -1377,8 +1489,11 @@
       <c r="C38" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E38" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>20</v>
       </c>
@@ -1388,8 +1503,11 @@
       <c r="C40" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E40" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>21</v>
       </c>
@@ -1399,8 +1517,11 @@
       <c r="C42" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E42" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>22</v>
       </c>
@@ -1410,8 +1531,11 @@
       <c r="C44" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E44" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>23</v>
       </c>
@@ -1421,8 +1545,11 @@
       <c r="C46" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E46" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>24</v>
       </c>
@@ -1432,21 +1559,27 @@
       <c r="C48" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E48" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>24</v>
       </c>
       <c r="B53" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E53" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>25</v>
       </c>
@@ -1456,8 +1589,11 @@
       <c r="C55" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E55" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>26</v>
       </c>
@@ -1467,32 +1603,44 @@
       <c r="C57" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E57" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>27</v>
       </c>
       <c r="B59" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E59" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>28</v>
       </c>
       <c r="B61" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E61" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>29</v>
       </c>
       <c r="B63" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E63" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>30</v>
       </c>
@@ -1502,34 +1650,78 @@
       <c r="C65" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E65" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>31</v>
       </c>
       <c r="B67" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E67" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>32</v>
       </c>
       <c r="B69" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E69" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>33</v>
       </c>
       <c r="B71" t="s">
         <v>54</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E6" r:id="rId3"/>
+    <hyperlink ref="E10" r:id="rId4"/>
+    <hyperlink ref="E12" r:id="rId5"/>
+    <hyperlink ref="E14" r:id="rId6"/>
+    <hyperlink ref="E16" r:id="rId7"/>
+    <hyperlink ref="E18" r:id="rId8"/>
+    <hyperlink ref="E20" r:id="rId9"/>
+    <hyperlink ref="E22" r:id="rId10"/>
+    <hyperlink ref="E24" r:id="rId11"/>
+    <hyperlink ref="E26" r:id="rId12"/>
+    <hyperlink ref="E28" r:id="rId13"/>
+    <hyperlink ref="E30" r:id="rId14"/>
+    <hyperlink ref="E32" r:id="rId15"/>
+    <hyperlink ref="E34" r:id="rId16"/>
+    <hyperlink ref="E36" r:id="rId17"/>
+    <hyperlink ref="E38" r:id="rId18"/>
+    <hyperlink ref="E40" r:id="rId19"/>
+    <hyperlink ref="E42" r:id="rId20"/>
+    <hyperlink ref="E44" r:id="rId21"/>
+    <hyperlink ref="E46" r:id="rId22"/>
+    <hyperlink ref="E48" r:id="rId23"/>
+    <hyperlink ref="E53" r:id="rId24"/>
+    <hyperlink ref="E55" r:id="rId25"/>
+    <hyperlink ref="E57" r:id="rId26"/>
+    <hyperlink ref="E59" r:id="rId27"/>
+    <hyperlink ref="E61" r:id="rId28"/>
+    <hyperlink ref="E63" r:id="rId29"/>
+    <hyperlink ref="E65" r:id="rId30"/>
+    <hyperlink ref="E67" r:id="rId31"/>
+    <hyperlink ref="E69" r:id="rId32"/>
+    <hyperlink ref="E71" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1537,10 +1729,55 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="54.28515625" customWidth="1"/>
+    <col min="2" max="2" width="70.85546875" customWidth="1"/>
+    <col min="3" max="3" width="76.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1548,9 +1785,10 @@
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="33.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="66.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1560,19 +1798,19 @@
       <c r="C1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1580,10 +1818,13 @@
         <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1593,19 +1834,20 @@
       <c r="C7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E9" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1615,8 +1857,11 @@
       <c r="C11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E11" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1626,8 +1871,11 @@
       <c r="C13" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E13" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7</v>
       </c>
@@ -1637,8 +1885,11 @@
       <c r="C15" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E15" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1648,67 +1899,92 @@
       <c r="C17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E17" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>9</v>
       </c>
       <c r="B19" t="s">
         <v>65</v>
       </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E19" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10</v>
       </c>
       <c r="B21" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>11</v>
       </c>
       <c r="B23" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E23" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>12</v>
       </c>
       <c r="B25" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E25" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>13</v>
       </c>
       <c r="B27" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E27" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>243</v>
       </c>
       <c r="C29" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E9" r:id="rId1"/>
+    <hyperlink ref="E11" r:id="rId2"/>
+    <hyperlink ref="E13" r:id="rId3"/>
+    <hyperlink ref="E15" r:id="rId4"/>
+    <hyperlink ref="E17" r:id="rId5"/>
+    <hyperlink ref="E19" r:id="rId6"/>
+    <hyperlink ref="E23" r:id="rId7"/>
+    <hyperlink ref="E25" r:id="rId8"/>
+    <hyperlink ref="E27" r:id="rId9"/>
+    <hyperlink ref="E5" r:id="rId10"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C70"/>
   <sheetViews>
@@ -2097,12 +2373,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
